--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -18,9 +18,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430022地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430019地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430024地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430027地號</t>
+  </si>
+  <si>
+    <t>屏東縣車城鄉興安段14980000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>6593分之325</t>
+  </si>
+  <si>
+    <t>潘孟安</t>
+  </si>
+  <si>
+    <t>96年07月05日</t>
+  </si>
+  <si>
+    <t>98年05月20日</t>
+  </si>
+  <si>
+    <t>97年12月12日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
+    <t>3600000(與建物合購）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-13</t>
+  </si>
+  <si>
+    <t>tmpb07a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -29,7 +128,7 @@
     <t>權利範圍(持分）</t>
   </si>
   <si>
-    <t>所有權人</t>
+    <t>&gt;所有權人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
@@ -41,70 +140,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣恆春鎮大平頂段下大平 頂小段0279-0000地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0022 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0019 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0024 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0027 地號</t>
-  </si>
-  <si>
-    <t>屏東縣車城鄉興安段1498-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>6593分之 325</t>
-  </si>
-  <si>
-    <t>潘孟安</t>
-  </si>
-  <si>
-    <t>96年07月 05日</t>
-  </si>
-  <si>
-    <t>98年05月 20日</t>
-  </si>
-  <si>
-    <t>97年12月 12日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>分割</t>
-  </si>
-  <si>
-    <t>3，600,000(與 建物合購）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>&gt;所有權人</t>
-  </si>
-  <si>
     <t>屏東縣車城鄉福安路</t>
   </si>
   <si>
     <t>屏東縣恆春鎮德和里德和路</t>
   </si>
   <si>
-    <t>98年01月 08日</t>
+    <t>98年01月08日</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>3,600,000(11 交易額）</t>
+    <t>3600000(11交易額）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -119,7 +167,7 @@
     <t>TOYOTA</t>
   </si>
   <si>
-    <t>97年06月 20日</t>
+    <t>97年06月20日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -137,7 +185,7 @@
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北潮州 分行</t>
+    <t>合作金庫商業銀行北潮州分行</t>
   </si>
   <si>
     <t>第一商業銀行恆春分行</t>
@@ -146,7 +194,7 @@
     <t>彰化商業銀行車城分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司立 法院郵局</t>
+    <t>中華郵政股份有限公司立法院郵局</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -155,13 +203,13 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>^臺幣</t>
+    <t>臺幣</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>. 70,964</t>
+    <t>.70964</t>
   </si>
   <si>
     <t>名</t>
@@ -182,22 +230,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及多</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>保 險公司</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 1</t>
-  </si>
-  <si>
-    <t>保 險名稱</t>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>保險公司</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項1</t>
+  </si>
+  <si>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>件</t>
@@ -206,10 +254,10 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
-  </si>
-  <si>
-    <t>備 註</t>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>備註</t>
   </si>
   <si>
     <t>價</t>
@@ -574,13 +622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,161 +650,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2706</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>26.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>8438</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>73920</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>59.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
         <v>18957</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>13.11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2">
         <v>4195</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>80.84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -774,25 +969,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -800,25 +995,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>157.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,22 +1021,22 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>245.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2">
         <v>5000000</v>
@@ -862,22 +1057,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -885,19 +1080,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
@@ -918,19 +1113,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -938,16 +1133,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
         <v>6549071</v>
@@ -958,16 +1153,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>14631</v>
@@ -978,16 +1173,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>237599</v>
@@ -998,16 +1193,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
         <v>109023</v>
@@ -1018,16 +1213,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>67</v>
@@ -1038,19 +1233,19 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1068,22 +1263,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1091,14 +1286,14 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1108,22 +1303,22 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1131,16 +1326,16 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>

--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣恆春鎮槺榔林段01430022地號</t>
@@ -80,30 +83,27 @@
     <t>屏東縣車城鄉興安段14980000地號</t>
   </si>
   <si>
+    <t>6593分之325</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>6593分之325</t>
-  </si>
-  <si>
     <t>潘孟安</t>
   </si>
   <si>
-    <t>96年07月05日</t>
-  </si>
-  <si>
     <t>98年05月20日</t>
   </si>
   <si>
     <t>97年12月12日</t>
   </si>
   <si>
+    <t>分割</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>分割</t>
-  </si>
-  <si>
     <t>3600000(與建物合購）</t>
   </si>
   <si>
@@ -119,30 +119,12 @@
     <t>tmpb07a1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>&gt;所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>屏東縣車城鄉福安路</t>
   </si>
   <si>
+    <t>3600000(11交易額）</t>
+  </si>
+  <si>
     <t>屏東縣恆春鎮德和里德和路</t>
   </si>
   <si>
@@ -152,118 +134,79 @@
     <t>新建</t>
   </si>
   <si>
-    <t>3600000(11交易額）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>97年06月20日</t>
+  </si>
+  <si>
+    <t>臺灣銀行中屏分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行北潮州分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行恆春分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行車城分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司立法院郵局</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>.70964</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及多</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>保險公司</t>
+  </si>
+  <si>
+    <t>項1</t>
+  </si>
+  <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>97年06月20日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行中屏分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行北潮州分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行恆春分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行車城分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司立法院郵局</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>臺幣</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>.70964</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項1</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
     <t>備註</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
 </sst>
 </file>
@@ -622,13 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,31 +614,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2706</v>
+        <v>26.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="2">
-        <v>1500000</v>
+        <v>8438</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -707,7 +656,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1376</v>
@@ -716,33 +665,39 @@
         <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.29990141058699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>26.37</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
-        <v>8438</v>
+        <v>73920</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -754,7 +709,7 @@
         <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1376</v>
@@ -763,33 +718,39 @@
         <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>231</v>
+        <v>59.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2">
-        <v>73920</v>
+        <v>18957</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -801,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1376</v>
@@ -810,33 +771,39 @@
         <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.92021841346883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>59.24</v>
+        <v>13.11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>18957</v>
+        <v>4195</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -848,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1376</v>
@@ -857,33 +824,39 @@
         <v>32</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.646253602305475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>13.11</v>
+        <v>80.84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2">
-        <v>4195</v>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -895,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>1376</v>
@@ -904,54 +877,13 @@
         <v>32</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>80.84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1376</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="2">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -971,74 +903,48 @@
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>157.86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>157.86</v>
+        <v>245.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>245.1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2">
         <v>5000000</v>
       </c>
     </row>
@@ -1049,7 +955,170 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1">
+        <v>6549071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>14631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
+        <v>237599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>109023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1057,288 +1126,59 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6549071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>237599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2">
-        <v>109023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+  </si>
+  <si>
     <t>屏東縣恆春鎮槺榔林段01430022地號</t>
   </si>
   <si>
@@ -83,27 +86,30 @@
     <t>屏東縣車城鄉興安段14980000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>6593分之325</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>潘孟安</t>
   </si>
   <si>
+    <t>96年07月05日</t>
+  </si>
+  <si>
     <t>98年05月20日</t>
   </si>
   <si>
     <t>97年12月12日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>分割</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>3600000(與建物合購）</t>
   </si>
   <si>
@@ -122,16 +128,16 @@
     <t>屏東縣車城鄉福安路</t>
   </si>
   <si>
+    <t>屏東縣恆春鎮德和里德和路</t>
+  </si>
+  <si>
+    <t>98年01月08日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
     <t>3600000(11交易額）</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮德和里德和路</t>
-  </si>
-  <si>
-    <t>98年01月08日</t>
-  </si>
-  <si>
-    <t>新建</t>
   </si>
   <si>
     <t>TOYOTA</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,266 +629,319 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>26.37</v>
+        <v>2706</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>8438</v>
+        <v>1500000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1376</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0492947065069013</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.29990141058699</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>231</v>
+        <v>26.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
-        <v>73920</v>
+        <v>8438</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1376</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0.0492947065069013</v>
       </c>
       <c r="Q3" s="2">
-        <v>231</v>
+        <v>1.29990141058699</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>59.24</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>18957</v>
+        <v>73920</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1376</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0492947065069013</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.92021841346883</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>13.11</v>
+        <v>59.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
-        <v>4195</v>
+        <v>18957</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>1376</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.0492947065069013</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.646253602305475</v>
+        <v>2.92021841346883</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>80.84</v>
+        <v>13.11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4195</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>1376</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.646253602305475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>80.84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="2">
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q7" s="2">
         <v>80.84</v>
       </c>
     </row>
@@ -893,59 +952,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
-        <v>157.86</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>245.1</v>
+        <v>157.86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>157.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="2">
+        <v>245.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
         <v>5000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>245.1</v>
       </c>
     </row>
   </sheetData>
@@ -955,29 +1121,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -988,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -996,16 +1185,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1">
         <v>6549071</v>
@@ -1013,102 +1202,122 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
-        <v>14631</v>
+        <v>6549071</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>237599</v>
+        <v>14631</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>109023</v>
+        <v>237599</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>67</v>
+        <v>109023</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>53</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1126,58 +1335,75 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>62</v>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>3600000(11交易額）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTA</t>
@@ -1121,38 +1124,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1161,13 +1185,34 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1185,13 +1230,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1205,13 +1250,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1225,13 +1270,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1245,13 +1290,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1265,13 +1310,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1285,13 +1330,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1305,19 +1350,19 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1335,14 +1380,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1352,16 +1397,16 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1369,22 +1414,22 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1392,18 +1437,18 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -140,6 +140,9 @@
     <t>3600000(11交易額）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>97年06月20日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行中屏分行</t>
@@ -1037,7 +1043,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
@@ -1090,7 +1096,7 @@
         <v>5000000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>32</v>
@@ -1135,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1176,7 +1182,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1185,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1194,7 +1200,7 @@
         <v>1500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>32</v>
@@ -1230,13 +1236,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1250,13 +1256,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1270,13 +1276,13 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1290,13 +1296,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1310,13 +1316,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1330,13 +1336,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1350,19 +1356,19 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1380,14 +1386,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1397,16 +1403,16 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1414,22 +1420,22 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1437,18 +1443,18 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -155,34 +155,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行北潮州分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行恆春分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行車城分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司立法院郵局</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北潮州分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行恆春分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行車城分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司立法院郵局</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>.70964</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及多</t>
@@ -1228,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1245,24 +1254,45 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1">
-        <v>6549071</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1270,19 +1300,40 @@
       <c r="F2" s="2">
         <v>6549071</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1290,19 +1341,40 @@
       <c r="F3" s="2">
         <v>14631</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1310,19 +1382,40 @@
       <c r="F4" s="2">
         <v>237599</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1330,19 +1423,40 @@
       <c r="F5" s="2">
         <v>109023</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1350,25 +1464,67 @@
       <c r="F6" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>70964</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
         <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1386,14 +1542,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1403,16 +1559,16 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1420,22 +1576,22 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1443,18 +1599,18 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -11,14 +11,13 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -192,45 +191,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及多</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>項1</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>備註</t>
   </si>
 </sst>
 </file>
@@ -1530,90 +1490,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>76</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2012-04-13_財產申報表_tmpb07a1.xlsx
@@ -11,13 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -191,6 +192,33 @@
   </si>
   <si>
     <t>deposit</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>第一銀行恆春分行屏東縣髓鎮中正路</t>
+  </si>
+  <si>
+    <t>彰化銀行賴分行屏東縣車城鄉福興村中山路</t>
+  </si>
+  <si>
+    <t>98年12月24日</t>
+  </si>
+  <si>
+    <t>98年07月06日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1490,4 +1518,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2586823</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>